--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesquisaPàssagens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757EB916-7E99-4F0E-A113-0AD059435398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A8617-EDEC-44C9-B6E4-9622F678CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -166,13 +166,22 @@
   </si>
   <si>
     <t>URL Site Google Flights</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>maurovmorais@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endereço de email </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -196,6 +205,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,10 +229,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -227,8 +243,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,7 +562,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -634,7 +652,17 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1626,8 +1654,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{FC47A24D-0B31-4EDC-B9F5-228772BEE1DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesquisaPàssagens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175A8617-EDEC-44C9-B6E4-9622F678CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50C51D6-C87D-429B-96F8-053210D75B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,10 +171,10 @@
     <t>email</t>
   </si>
   <si>
+    <t xml:space="preserve">endereço de email </t>
+  </si>
+  <si>
     <t>maurovmorais@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endereço de email </t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -657,10 +657,10 @@
         <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesquisaPàssagens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50C51D6-C87D-429B-96F8-053210D75B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04AF63-047F-48B3-B18C-D41D4469E11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>maurovmorais@gmail.com</t>
+  </si>
+  <si>
+    <t>Caminho_planilha</t>
+  </si>
+  <si>
+    <t>Data\Input\Dados.xlsm</t>
+  </si>
+  <si>
+    <t>Caminho da planilha</t>
   </si>
 </sst>
 </file>
@@ -562,7 +571,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -664,7 +673,17 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesquisaPàssagens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04AF63-047F-48B3-B18C-D41D4469E11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14ED3E-FE02-4795-A6AF-7ABE81C850BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,19 +171,19 @@
     <t>email</t>
   </si>
   <si>
-    <t xml:space="preserve">endereço de email </t>
+    <t>Caminho_planilha</t>
+  </si>
+  <si>
+    <t>Data\Input\Dados.xlsm</t>
+  </si>
+  <si>
+    <t>Caminho da planilha</t>
+  </si>
+  <si>
+    <t>email destinatario</t>
   </si>
   <si>
     <t>maurovmorais@gmail.com</t>
-  </si>
-  <si>
-    <t>Caminho_planilha</t>
-  </si>
-  <si>
-    <t>Data\Input\Dados.xlsm</t>
-  </si>
-  <si>
-    <t>Caminho da planilha</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -237,10 +237,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -254,9 +270,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="2" xr:uid="{9DD555C3-161D-4632-BADC-74B716AED639}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -560,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,16 +585,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -661,30 +678,30 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1670,11 +1687,10 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{FC47A24D-0B31-4EDC-B9F5-228772BEE1DB}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{FE0DBA72-BCFF-4E6C-B434-8F7C95634A3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1686,7 +1702,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2841,6 +2857,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesquisaPàssagens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14ED3E-FE02-4795-A6AF-7ABE81C850BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE34529B-3E6D-49A9-B402-6724FE7684ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>maurovmorais@gmail.com</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -648,7 +651,9 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesquisaPàssagens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE34529B-3E6D-49A9-B402-6724FE7684ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B7F53E-8BD1-4622-AB67-ABB4997D32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,19 +174,19 @@
     <t>Caminho_planilha</t>
   </si>
   <si>
+    <t>Caminho da planilha</t>
+  </si>
+  <si>
+    <t>email destinatario</t>
+  </si>
+  <si>
+    <t>maurovmorais@gmail.com</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Data\Input\Dados.xlsm</t>
-  </si>
-  <si>
-    <t>Caminho da planilha</t>
-  </si>
-  <si>
-    <t>email destinatario</t>
-  </si>
-  <si>
-    <t>maurovmorais@gmail.com</t>
-  </si>
-  <si>
-    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,13 +591,13 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -652,7 +652,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -689,10 +689,10 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -701,10 +701,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesquisaPàssagens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B7F53E-8BD1-4622-AB67-ABB4997D32FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CF5EF-6D38-4EDA-B258-267484C11B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
     <t>IT</t>
   </si>
   <si>
-    <t>Data\Input\Dados.xlsm</t>
+    <t>\Data\Input\Dados.xlsm</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro.morais\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\PesquisaPàssagens\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29CF5EF-6D38-4EDA-B258-267484C11B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543CF83A-C834-4889-8557-F26F0A15734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -171,12 +171,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Caminho_planilha</t>
-  </si>
-  <si>
-    <t>Caminho da planilha</t>
-  </si>
-  <si>
     <t>email destinatario</t>
   </si>
   <si>
@@ -186,7 +180,10 @@
     <t>IT</t>
   </si>
   <si>
-    <t>\Data\Input\Dados.xlsm</t>
+    <t>PATH_ARQUIVO_EXCEL</t>
+  </si>
+  <si>
+    <t>Caminho do arquivo de excel pesquisa</t>
   </si>
 </sst>
 </file>
@@ -588,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -652,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -683,30 +680,20 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
     </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1689,13 +1676,10 @@
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{FE0DBA72-BCFF-4E6C-B434-8F7C95634A3E}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{FE0DBA72-BCFF-4E6C-B434-8F7C95634A3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2870,7 +2854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2916,7 +2902,20 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
